--- a/report/inputs/san_francisco_inputs.xlsx
+++ b/report/inputs/san_francisco_inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donbo\Documents\R_projects\crankstart\report\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E079FBB3-1F01-45B7-B9C7-AF6C21C04BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B616D1-0AAC-455C-8939-90722E077685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{C08D8337-D494-4917-9D38-F8626C6F88A6}"/>
   </bookViews>
@@ -231,9 +231,6 @@
     <t>https://oewd.org/</t>
   </si>
   <si>
-    <t>First 5 San Francisco is a department of the City and County of San Francisco. It is guided by a nine-member commission and two standing committees. Four seats on the First 5 San Francisco Commission are reserved for representatives of City agencies:  Director of Public Health; General Manager of the Human Services Agency; Member of the Board of Supervisors; Director of the Department of Children, Youth and Their Families. (Each may appoint a designee.) The Commission’s remaining five seats are appointed by San Francisco’s Board of Supervisors to four-year terms and represent community constituencies. (https://www.first5sf.org/commission-meetings/)</t>
-  </si>
-  <si>
     <t> In 1998 CA voters passed Proposition 10, adding a 50-cent tax to each pack of cigarettes sold to create First 5 California, also known as the California Children and Families Commission. ...First 5 California distributes funds to local communities through the state’s 58 individual counties, all of which have created their own local First 5 county commissions. Eighty percent of the annual revenues are allocated to the 58 county commissions, while the remaining 20 percent fund the state’s overall guiding programs and administrative costs. The amount of funding provided to each First 5 county commission is based upon the area’s birth rate. Funds are used to address the local needs of communities statewide. (https://www.ccfc.ca.gov/about/about.html)</t>
   </si>
   <si>
@@ -396,9 +393,6 @@
     <t>The Department of Homelessness and Supportive Housing (HSH) launched on July 1, 2016. The department combines key homeless-serving programs and contracts from the Department of Public Health (DPH), the Human Services Agency (HSA), the Mayor’s Office of Housing and Community Development (MOHCD), and the Department of Children Youth and Their Families (DCYF). This consolidated department has a singular focus on preventing and ending homelessness for people in San Francisco. (https://hsh.sfgov.org/about/)</t>
   </si>
   <si>
-    <t>The Department of Children, Youth and Their Families (DCYF) has administered San Francisco’s powerful investments in children, youth, transitional age youth, and their families through the Children and Youth Fund since 1991. With a deep commitment to advancing equity and healing trauma, we bring together government agencies, schools, and community-based organizations to strengthen our communities to lead full lives of opportunity and happiness. Together, we make San Francisco a great place to grow up. (https://www.dcyf.org/our-mission-our-vision-our-foundation)</t>
-  </si>
-  <si>
     <t>Mayor's Office</t>
   </si>
   <si>
@@ -408,6 +402,12 @@
   </si>
   <si>
     <t>Public Utilities Commission</t>
+  </si>
+  <si>
+    <t>First 5 San Francisco is a department of the City and County of San Francisco. It is guided by a nine-member commission and two standing committees. Four seats on the First 5 San Francisco Commission are reserved for representatives of City agencies:  Director of Public Health; General Manager of the Human Services Agency; Member of the Board of Supervisors; Director of the Department of Children, Youth and Their Families. (Each may appoint a designee.) The Commission’s remaining five seats are appointed by San Francisco’s Board of Supervisors to four-year terms and represent community constituencies. (https://www.first5sf.org/commission-meetings/) Note: There is also a Department of Children, Youth and Their Families, shown separately.</t>
+  </si>
+  <si>
+    <t>The Department of Children, Youth and Their Families (DCYF) has administered San Francisco’s powerful investments in children, youth, transitional age youth, and their families through the Children and Youth Fund since 1991. With a deep commitment to advancing equity and healing trauma, we bring together government agencies, schools, and community-based organizations to strengthen our communities to lead full lives of opportunity and happiness. Together, we make San Francisco a great place to grow up. (https://www.dcyf.org/our-mission-our-vision-our-foundation) Note: There is also a Commission on Children and Familes, shown separately.</t>
   </si>
 </sst>
 </file>
@@ -507,12 +507,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -548,6 +542,12 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -580,7 +580,7 @@
       <xdr:col>22</xdr:col>
       <xdr:colOff>149291</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>2227452</xdr:rowOff>
+      <xdr:rowOff>2044572</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -624,7 +624,7 @@
       <xdr:col>20</xdr:col>
       <xdr:colOff>18409</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>2842260</xdr:rowOff>
+      <xdr:rowOff>2659380</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1664,10 +1664,10 @@
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1677,489 +1677,489 @@
     <col min="3" max="3" width="34.6640625" customWidth="1"/>
     <col min="4" max="4" width="61.21875" customWidth="1"/>
     <col min="5" max="5" width="24.109375" customWidth="1"/>
-    <col min="6" max="6" width="40.77734375" style="15" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.77734375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" style="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q1" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="Q1" s="17" t="s">
+    </row>
+    <row r="2" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="18">
+        <v>1412197472</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="18">
+        <v>852119737</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="144" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="18">
+        <v>285355499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="18">
+        <v>206307156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="216" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="18">
+        <v>96149625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="18">
+        <v>31194003</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+    </row>
+    <row r="9" spans="1:17" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="20">
-        <v>1412197472</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" s="20">
-        <v>852119737</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="20">
-        <v>285355499</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="316.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="15" t="s">
+      <c r="D9" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="16"/>
+      <c r="G9" s="18">
+        <v>351913006</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+    </row>
+    <row r="10" spans="1:17" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="18">
+        <v>471084939</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+    </row>
+    <row r="11" spans="1:17" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="18">
+        <v>41818109</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+    </row>
+    <row r="12" spans="1:17" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" s="18">
+        <v>10279426</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+    </row>
+    <row r="13" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="18">
+        <v>23762015</v>
+      </c>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+    </row>
+    <row r="14" spans="1:17" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="18">
+        <v>2775782429</v>
+      </c>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+    </row>
+    <row r="15" spans="1:17" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="18">
+        <v>89501462</v>
+      </c>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+    </row>
+    <row r="16" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="16"/>
+      <c r="G16" s="18">
+        <v>245012613</v>
+      </c>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+    </row>
+    <row r="17" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="16"/>
+      <c r="G17" s="18">
+        <v>11205068</v>
+      </c>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+    </row>
+    <row r="18" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="20">
-        <v>206307156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="216" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" s="20">
-        <v>96149625</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="20">
-        <v>31194003</v>
-      </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-    </row>
-    <row r="9" spans="1:17" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="20">
-        <v>351913006</v>
-      </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-    </row>
-    <row r="10" spans="1:17" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="20">
-        <v>471084939</v>
-      </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-    </row>
-    <row r="11" spans="1:17" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="20">
-        <v>41818109</v>
-      </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-    </row>
-    <row r="12" spans="1:17" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="15" t="s">
+      <c r="D18" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="18">
+        <v>1433954907</v>
+      </c>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+    </row>
+    <row r="19" spans="1:9" ht="216" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" s="16"/>
+      <c r="G19" s="18">
+        <v>667891102</v>
+      </c>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+    </row>
+    <row r="20" spans="1:9" ht="288" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="18">
+        <v>231586029</v>
+      </c>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+    </row>
+    <row r="21" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" s="16"/>
+      <c r="G21" s="18">
+        <v>124802058</v>
+      </c>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+    </row>
+    <row r="22" spans="1:9" ht="216" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="G12" s="20">
-        <v>10279426</v>
-      </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-    </row>
-    <row r="13" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="20">
-        <v>23762015</v>
-      </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-    </row>
-    <row r="14" spans="1:17" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="20">
-        <v>2775782429</v>
-      </c>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-    </row>
-    <row r="15" spans="1:17" ht="259.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="20">
-        <v>89501462</v>
-      </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-    </row>
-    <row r="16" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="20">
-        <v>245012613</v>
-      </c>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-    </row>
-    <row r="17" spans="1:9" ht="144" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="20">
-        <v>11205068</v>
-      </c>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-    </row>
-    <row r="18" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="20">
-        <v>1433954907</v>
-      </c>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-    </row>
-    <row r="19" spans="1:9" ht="216" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="20">
-        <v>667891102</v>
-      </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-    </row>
-    <row r="20" spans="1:9" ht="288" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="D20" s="18" t="s">
+      <c r="D22" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="E20" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="20">
-        <v>231586029</v>
-      </c>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-    </row>
-    <row r="21" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="20">
-        <v>124802058</v>
-      </c>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-    </row>
-    <row r="22" spans="1:9" ht="216" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="20">
+      <c r="F22" s="16"/>
+      <c r="G22" s="18">
         <v>41287133</v>
       </c>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2219,42 +2219,42 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
     </row>
     <row r="6" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2268,13 +2268,13 @@
       <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="6">
         <v>347488256</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="7">
         <v>0.37226025192459999</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="7">
         <v>0.37226025192459999</v>
       </c>
     </row>
@@ -2288,13 +2288,13 @@
       <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="8">
         <v>270623986</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="7">
         <v>0.28991642585238803</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="7">
         <v>0.66217667777698797</v>
       </c>
     </row>
@@ -2308,13 +2308,13 @@
       <c r="C10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="8">
         <v>110137842</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="7">
         <v>0.11798942871137399</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="7">
         <v>0.78016610648836204</v>
       </c>
     </row>
@@ -2328,13 +2328,13 @@
       <c r="C11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="8">
         <v>80600181</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="7">
         <v>8.6346065417037807E-2</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="7">
         <v>0.86651217190539997</v>
       </c>
     </row>
@@ -2348,13 +2348,13 @@
       <c r="C12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="8">
         <v>23922037</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="7">
         <v>2.5627408599873999E-2</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="7">
         <v>0.89213958050527398</v>
       </c>
     </row>
@@ -2368,13 +2368,13 @@
       <c r="C13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="8">
         <v>16844416</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="7">
         <v>1.8045232998270801E-2</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="7">
         <v>0.91018481350354496</v>
       </c>
     </row>
@@ -2388,13 +2388,13 @@
       <c r="C14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="8">
         <v>16640061</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="7">
         <v>1.7826309790166601E-2</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="7">
         <v>0.92801112329371105</v>
       </c>
     </row>
@@ -2408,13 +2408,13 @@
       <c r="C15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="8">
         <v>16303651</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="7">
         <v>1.7465917549025801E-2</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="7">
         <v>0.94547704084273698</v>
       </c>
     </row>
@@ -2428,13 +2428,13 @@
       <c r="C16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="8">
         <v>11554403</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="7">
         <v>1.2378101697970399E-2</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="7">
         <v>0.95785514254070703</v>
       </c>
     </row>
@@ -2448,13 +2448,13 @@
       <c r="C17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="8">
         <v>9742855</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="7">
         <v>1.04374107445083E-2</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="7">
         <v>0.96829255328521602</v>
       </c>
     </row>
@@ -2468,13 +2468,13 @@
       <c r="C18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="8">
         <v>9733026</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="7">
         <v>1.0426881047596301E-2</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="7">
         <v>0.97871943433281205</v>
       </c>
     </row>
@@ -2488,13 +2488,13 @@
       <c r="C19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="8">
         <v>4974558</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="7">
         <v>5.3291879144644703E-3</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="7">
         <v>0.98404862224727696</v>
       </c>
     </row>
@@ -2508,13 +2508,13 @@
       <c r="C20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="8">
         <v>4288305</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="7">
         <v>4.5940128106934401E-3</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="7">
         <v>0.98864263505797001</v>
       </c>
     </row>
@@ -2528,13 +2528,13 @@
       <c r="C21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="8">
         <v>3301695</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="7">
         <v>3.5370686383087201E-3</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="7">
         <v>0.99217970369627895</v>
       </c>
     </row>
@@ -2548,13 +2548,13 @@
       <c r="C22" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="8">
         <v>1778573</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="7">
         <v>1.90536520764112E-3</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="7">
         <v>0.99408506890392001</v>
       </c>
     </row>
@@ -2568,13 +2568,13 @@
       <c r="C23" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="8">
         <v>1177298</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="7">
         <v>1.2612260774370701E-3</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="7">
         <v>0.99534629498135696</v>
       </c>
     </row>
@@ -2588,13 +2588,13 @@
       <c r="C24" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="8">
         <v>1025508</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="7">
         <v>1.0986151613443099E-3</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="7">
         <v>0.99644491014270098</v>
       </c>
     </row>
@@ -2608,13 +2608,13 @@
       <c r="C25" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="8">
         <v>876585</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="7">
         <v>9.3907563003604302E-4</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="7">
         <v>0.99738398577273701</v>
       </c>
     </row>
@@ -2628,13 +2628,13 @@
       <c r="C26" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="8">
         <v>807573</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="7">
         <v>8.65143852307645E-4</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="7">
         <v>0.99824912962504497</v>
       </c>
     </row>
@@ -2648,13 +2648,13 @@
       <c r="C27" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="8">
         <v>501258</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="7">
         <v>5.3699204544979304E-4</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="7">
         <v>0.99878612167049496</v>
       </c>
     </row>
@@ -2662,29 +2662,29 @@
       <c r="C28" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="8">
         <v>1133101</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="7">
         <v>1.2138783295053801E-3</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11" t="s">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="10">
         <v>933455168</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E29" s="11">
         <v>1</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F29" s="11">
         <v>1</v>
       </c>
     </row>
